--- a/docs/xlsx/data.xlsx
+++ b/docs/xlsx/data.xlsx
@@ -1,53 +1,303 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssato\OneDrive\デスクトップ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCB7ACC-8352-4F64-8287-F8F9092BA43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+  <si>
+    <t>回数</t>
+  </si>
+  <si>
+    <t>開催日</t>
+  </si>
+  <si>
+    <t>議題等</t>
+  </si>
+  <si>
+    <t>議事録／議事要旨</t>
+  </si>
+  <si>
+    <t>資料等</t>
+  </si>
+  <si>
+    <t>開催案内</t>
+  </si>
+  <si>
+    <t>第585回</t>
+  </si>
+  <si>
+    <t>2024年3月13日（令和6年3月13日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１高額医薬品（感染症治療薬）に対する対応について
+２最適使用推進ガイドラインについて
+３公知申請とされた適応外薬の保険適用について
+４費用対効果評価専門組織からの報告について
+５先進医療会議及び患者申出療養評価会議からの報告について
+６DPC対象病院の合併に係る報告について
+７在宅自己注射について
+</t>
+  </si>
+  <si>
+    <t>－</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+資料
+</t>
+  </si>
+  <si>
+    <t>第584回</t>
+  </si>
+  <si>
+    <t>2024年2月14日（令和6年2月14日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１答申について
+２歯科用貴金属随時改定について</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+議事録
+</t>
+  </si>
+  <si>
+    <t>第583回</t>
+  </si>
+  <si>
+    <t>2024年2月7日（令和6年2月7日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１パブリックコメント、公聴会の報告について
+２個別改定項目（その３）について
+３答申書の附帯意見案について（その２）</t>
+  </si>
+  <si>
+    <t>第582回</t>
+  </si>
+  <si>
+    <t>2024年1月31日（令和6年1月31日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１個別改定項目（その２）について
+２答申書の附帯意見案について（その１）
+</t>
+  </si>
+  <si>
+    <t>第581回</t>
+  </si>
+  <si>
+    <t>2024年1月26日（令和6年1月26日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１診療報酬基本問題小委員会からの報告について
+２医療機関等における職員の賃上げ（その２）について
+３令和６年度実施の特定保険医療材料の機能区分の見直し等について
+４医療機器及び臨床検査の保険適用について
+５個別改定項目（その１）について
+</t>
+  </si>
+  <si>
+    <t>第580回</t>
+  </si>
+  <si>
+    <t>2024年1月19日（令和6年1月19日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１令和６年度診療報酬改定に係る検討状況について（説明）
+２意見発表者による意見発表、中医協委員からの質問
+</t>
+  </si>
+  <si>
+    <t>第579回</t>
+  </si>
+  <si>
+    <t>2024年1月17日（令和6年1月17日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１診療報酬基本問題小委員会からの報告について
+２令和６年度薬価制度の見直しについて
+３市場拡大再算定等について
+４令和６年度保険医療材料制度の見直しについて
+５令和６年度費用対効果評価制度の見直しについて
+６その他
+</t>
+  </si>
+  <si>
+    <t>第578回</t>
+  </si>
+  <si>
+    <t>2024年1月12日（令和6年1月12日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１これまでの議論の整理（案）について
+２令和６年度診療報酬改定について（諮問）
+３その他
+</t>
+  </si>
+  <si>
+    <t>第577回</t>
+  </si>
+  <si>
+    <t>2024年1月10日（令和6年1月10日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１診療報酬基本問題小委員会からの報告について
+２医療機関等における職員の賃上げ（その１）について
+３個別事項（その23）について
+４入院（その10）について
+５これまでの議論の整理（案）について
+６その他
+</t>
+  </si>
+  <si>
+    <t>第576回</t>
+  </si>
+  <si>
+    <t>2023年12月27日（令和5年12月27日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１医療DX（その５）について
+２個別事項（その21）について
+３個別事項（その22）について
+４医科点数表における医療技術に係る項目の整理について
+５保険外併用療養について
+６訪問診療・往診等における距離要件について
+７令和６年度診療報酬改定への意見について（各号意見）
+</t>
+  </si>
+  <si>
+    <t>第575回</t>
+  </si>
+  <si>
+    <t>2023年12月22日（令和5年12月22日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１臨床検査の保険適用について
+２個別事項（その18）について
+３個別事項（その19）について
+４個別事項（その20）について
+５入院（その９）について
+６その他
+</t>
+  </si>
+  <si>
+    <t>第574回</t>
+  </si>
+  <si>
+    <t>2023年12月20日（令和5年12月20日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１令和６年度薬価制度改革の骨子（案）について
+２令和６年度保険医療材料制度改革の骨子（案）について
+３令和６年度費用対効果評価制度改革の骨子（案）について
+４個別事項（その15）について
+５個別事項（その16）について
+６個別事項（その17）について
+７令和６年度診療報酬改定の改定率等について
+</t>
+  </si>
+  <si>
+    <t>第573回</t>
+  </si>
+  <si>
+    <t>2023年12月15日（令和5年12月15日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１在宅（その６）について
+２入院（その７）について
+３入院（その８）について
+４歯科医療（その３）について
+５外来（その４）について
+６長期収載品（その３）について
+</t>
+  </si>
+  <si>
+    <t>第572回</t>
+  </si>
+  <si>
+    <t>2023年12月13日（令和5年12月13日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１レケンビに対する費用対効果評価について（案）
+２新医薬品の薬価収載について
+３最適使用推進ガイドラインについて
+４医療機器及び臨床検査の保険適用について
+５ＤＰＣにおける高額な新規の医薬品等への対応について
+６最適使用推進ガイドラインについて（報告）
+７先進医療会議及び患者申出療養評価会議からの報告について
+８DPC/PDPSにおける新型コロナウイルス感染症等を踏まえた対応について
+９「令和６年度診療報酬改定の基本方針」について
+10令和６年度診療報酬改定への意見について（公益委員案の提示）
+</t>
+  </si>
+  <si>
+    <t>第571回</t>
+  </si>
+  <si>
+    <t>2023年12月8日（令和5年12月8日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１診療報酬調査専門組織「医療機関等における消費税負担に関する分科会」からの報告について
+２医療DX（その４）について
+３個別事項（その12）について
+４個別事項（その13）について
+５個別事項（その14）について
+６処遇改善（その２）について
+７入院時の食費について（その２）
+８令和６年度診療報酬改定に関する基本的な見解（各号意見）について
+</t>
+  </si>
+  <si>
+    <t>第570回</t>
+  </si>
+  <si>
+    <t>2023年12月6日（令和5年12月6日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１個別事項（その11）について
+２入院（その６）について
+３感染症対応について（その２）
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -75,18 +325,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -101,44 +343,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -165,15 +407,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -200,7 +441,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -212,163 +452,518 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/xlsx/data.xlsx
+++ b/docs/xlsx/data.xlsx
@@ -40,8 +40,7 @@
     <t>2024年3月13日（令和6年3月13日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１高額医薬品（感染症治療薬）に対する対応について
+    <t xml:space="preserve">１高額医薬品（感染症治療薬）に対する対応について
 ２最適使用推進ガイドラインについて
 ３公知申請とされた適応外薬の保険適用について
 ４費用対効果評価専門組織からの報告について
@@ -54,8 +53,7 @@
     <t>－</t>
   </si>
   <si>
-    <t xml:space="preserve">
-資料
+    <t xml:space="preserve">資料
 </t>
   </si>
   <si>
@@ -65,13 +63,11 @@
     <t>2024年2月14日（令和6年2月14日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１答申について
+    <t>１答申について
 ２歯科用貴金属随時改定について</t>
   </si>
   <si>
-    <t xml:space="preserve">
-議事録
+    <t xml:space="preserve">議事録
 </t>
   </si>
   <si>
@@ -81,8 +77,7 @@
     <t>2024年2月7日（令和6年2月7日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１パブリックコメント、公聴会の報告について
+    <t>１パブリックコメント、公聴会の報告について
 ２個別改定項目（その３）について
 ３答申書の附帯意見案について（その２）</t>
   </si>
@@ -93,8 +88,7 @@
     <t>2024年1月31日（令和6年1月31日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１個別改定項目（その２）について
+    <t xml:space="preserve">１個別改定項目（その２）について
 ２答申書の附帯意見案について（その１）
 </t>
   </si>
@@ -105,8 +99,7 @@
     <t>2024年1月26日（令和6年1月26日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１診療報酬基本問題小委員会からの報告について
+    <t xml:space="preserve">１診療報酬基本問題小委員会からの報告について
 ２医療機関等における職員の賃上げ（その２）について
 ３令和６年度実施の特定保険医療材料の機能区分の見直し等について
 ４医療機器及び臨床検査の保険適用について
@@ -120,8 +113,7 @@
     <t>2024年1月19日（令和6年1月19日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１令和６年度診療報酬改定に係る検討状況について（説明）
+    <t xml:space="preserve">１令和６年度診療報酬改定に係る検討状況について（説明）
 ２意見発表者による意見発表、中医協委員からの質問
 </t>
   </si>
@@ -132,8 +124,7 @@
     <t>2024年1月17日（令和6年1月17日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１診療報酬基本問題小委員会からの報告について
+    <t xml:space="preserve">１診療報酬基本問題小委員会からの報告について
 ２令和６年度薬価制度の見直しについて
 ３市場拡大再算定等について
 ４令和６年度保険医療材料制度の見直しについて
@@ -148,8 +139,7 @@
     <t>2024年1月12日（令和6年1月12日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１これまでの議論の整理（案）について
+    <t xml:space="preserve">１これまでの議論の整理（案）について
 ２令和６年度診療報酬改定について（諮問）
 ３その他
 </t>
@@ -161,8 +151,7 @@
     <t>2024年1月10日（令和6年1月10日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１診療報酬基本問題小委員会からの報告について
+    <t xml:space="preserve">１診療報酬基本問題小委員会からの報告について
 ２医療機関等における職員の賃上げ（その１）について
 ３個別事項（その23）について
 ４入院（その10）について
@@ -177,8 +166,7 @@
     <t>2023年12月27日（令和5年12月27日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１医療DX（その５）について
+    <t xml:space="preserve">１医療DX（その５）について
 ２個別事項（その21）について
 ３個別事項（その22）について
 ４医科点数表における医療技術に係る項目の整理について
@@ -194,8 +182,7 @@
     <t>2023年12月22日（令和5年12月22日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１臨床検査の保険適用について
+    <t xml:space="preserve">１臨床検査の保険適用について
 ２個別事項（その18）について
 ３個別事項（その19）について
 ４個別事項（その20）について
@@ -210,8 +197,7 @@
     <t>2023年12月20日（令和5年12月20日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１令和６年度薬価制度改革の骨子（案）について
+    <t xml:space="preserve">１令和６年度薬価制度改革の骨子（案）について
 ２令和６年度保険医療材料制度改革の骨子（案）について
 ３令和６年度費用対効果評価制度改革の骨子（案）について
 ４個別事項（その15）について
@@ -227,8 +213,7 @@
     <t>2023年12月15日（令和5年12月15日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１在宅（その６）について
+    <t xml:space="preserve">１在宅（その６）について
 ２入院（その７）について
 ３入院（その８）について
 ４歯科医療（その３）について
@@ -243,8 +228,7 @@
     <t>2023年12月13日（令和5年12月13日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１レケンビに対する費用対効果評価について（案）
+    <t xml:space="preserve">１レケンビに対する費用対効果評価について（案）
 ２新医薬品の薬価収載について
 ３最適使用推進ガイドラインについて
 ４医療機器及び臨床検査の保険適用について
@@ -263,8 +247,7 @@
     <t>2023年12月8日（令和5年12月8日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１診療報酬調査専門組織「医療機関等における消費税負担に関する分科会」からの報告について
+    <t xml:space="preserve">１診療報酬調査専門組織「医療機関等における消費税負担に関する分科会」からの報告について
 ２医療DX（その４）について
 ３個別事項（その12）について
 ４個別事項（その13）について
@@ -281,8 +264,7 @@
     <t>2023年12月6日（令和5年12月6日）</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１個別事項（その11）について
+    <t xml:space="preserve">１個別事項（その11）について
 ２入院（その６）について
 ３感染症対応について（その２）
 </t>
